--- a/densenet-gluon/DenseNetParam.xlsx
+++ b/densenet-gluon/DenseNetParam.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Input_data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경사하강법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>학습률</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,81 +50,543 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SoftmaxCrossEntropy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epoch3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epoch4</t>
+  </si>
+  <si>
+    <t>Epoch5</t>
+  </si>
+  <si>
+    <t>Epoch6</t>
+  </si>
+  <si>
+    <t>Epoch7</t>
+  </si>
+  <si>
+    <t>Epoch8</t>
+  </si>
+  <si>
+    <t>Epoch9</t>
+  </si>
+  <si>
+    <t>Learning1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning3</t>
+  </si>
+  <si>
+    <t>Learning4</t>
+  </si>
+  <si>
+    <t>Learning5</t>
+  </si>
+  <si>
+    <t>Learning6</t>
+  </si>
+  <si>
+    <t>Epoch0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mx.init.Xavier()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(32, 32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mx.init.Xavier()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(net.collect_params(), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'adagrad'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>, {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'learning_rate'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>})</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(net.collect_params(), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'rmsprop'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>, {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'gamma1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'learning_rate'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>})</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(net.collect_params(), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'sgd'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>, {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'learning_rate'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>})</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(net.collect_params(), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'adam'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>, {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'learning_rate'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>})</t>
+    </r>
+  </si>
+  <si>
+    <t>Optimization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(net.collect_params(), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'sgd'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>, {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'momentum'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'learning_rate'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>})</t>
+    </r>
+  </si>
+  <si>
     <t>sgd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SoftmaxCrossEntropy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test_acc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Epoch3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Epoch4</t>
-  </si>
-  <si>
-    <t>Epoch5</t>
-  </si>
-  <si>
-    <t>Epoch6</t>
-  </si>
-  <si>
-    <t>Epoch7</t>
-  </si>
-  <si>
-    <t>Epoch8</t>
-  </si>
-  <si>
-    <t>Epoch9</t>
-  </si>
-  <si>
-    <t>Learning1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learning2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learning3</t>
-  </si>
-  <si>
-    <t>Learning4</t>
-  </si>
-  <si>
-    <t>Learning5</t>
-  </si>
-  <si>
-    <t>Learning6</t>
-  </si>
-  <si>
-    <t>Epoch0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mx.init.Xavier()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learning7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(32, 32)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>adam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sgd (momentum=0.9)</t>
+    <t>momentum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adagrad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rmsprop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adadelta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(net.collect_params(), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'adadelta'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>, {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'rho'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.9999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>})</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +594,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +609,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11.3"/>
+      <color rgb="FF008080"/>
+      <name val="Inconsolata"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FF0000FF"/>
+      <name val="Inconsolata"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FF000000"/>
+      <name val="Inconsolata"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -160,7 +637,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -183,43 +660,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -232,14 +672,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -258,20 +698,1483 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sgd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$9:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Epoch0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Epoch1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Epoch2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Epoch3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Epoch4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Epoch5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Epoch6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Epoch7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Epoch8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Epoch9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$9:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.98357371794871795</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98968349358974295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99198717948717896</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9921875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99298878205128205</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99238782051282004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99268830128205099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99258814102564097</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99248798076922995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99258814102564097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8DAD-4671-ADF7-621C7EEC37DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>adam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$9:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Epoch0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Epoch1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Epoch2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Epoch3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Epoch4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Epoch5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Epoch6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Epoch7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Epoch8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Epoch9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.948116987179487</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97666266025641002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98096955128205099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98778044871794801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98407451923076905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98657852564102499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98858173076922995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98747996794871795</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98978365384615297</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98958333333333304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8DAD-4671-ADF7-621C7EEC37DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>momentum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$9:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Epoch0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Epoch1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Epoch2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Epoch3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Epoch4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Epoch5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Epoch6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Epoch7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Epoch8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Epoch9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$9:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.98567708333333304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99078525641025605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99078525641025605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99048477564102499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99248798076922995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99208733974358898</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.993289262820512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99268830128205099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99188701923076905</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99118589743589702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8DAD-4671-ADF7-621C7EEC37DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>adagrad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$9:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Epoch0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Epoch1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Epoch2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Epoch3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Epoch4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Epoch5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Epoch6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Epoch7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Epoch8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Epoch9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$9:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.98397435897435803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98928285256410198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99078525641025605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99098557692307598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99268830128205099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99228766025641002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99138621794871795</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99078525641025605</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99138621794871795</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99068509615384603</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8DAD-4671-ADF7-621C7EEC37DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rmsprop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$9:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Epoch0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Epoch1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Epoch2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Epoch3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Epoch4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Epoch5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Epoch6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Epoch7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Epoch8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Epoch9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$9:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.897335737179487</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94861778846153799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97215544871794801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97866586538461497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98627804487179405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98768028846153799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98457532051282004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98687900641025605</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98387419871794801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98898237179487103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8DAD-4671-ADF7-621C7EEC37DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>adadelta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$9:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Epoch0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Epoch1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Epoch2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Epoch3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Epoch4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Epoch5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Epoch6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Epoch7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Epoch8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Epoch9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$9:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8DAD-4671-ADF7-621C7EEC37DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="882039567"/>
+        <c:axId val="882034575"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="882039567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="882034575"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="882034575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="882039567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2343150</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>484059</xdr:rowOff>
+      <xdr:colOff>3843618</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>856637</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -288,8 +2191,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1524000" y="3562351"/>
-          <a:ext cx="2343150" cy="484058"/>
+          <a:off x="1692088" y="3686736"/>
+          <a:ext cx="3821206" cy="789401"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -301,15 +2204,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>67237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2352675</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>491369</xdr:rowOff>
+      <xdr:colOff>3910854</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>867657</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -326,14 +2229,158 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3905250" y="3562350"/>
-          <a:ext cx="2352675" cy="491369"/>
+          <a:off x="5558118" y="3686737"/>
+          <a:ext cx="3832412" cy="800420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4002833</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>874060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9592236" y="3686736"/>
+          <a:ext cx="3924391" cy="806824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3854824</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>876952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14814177" y="3697942"/>
+          <a:ext cx="3821206" cy="798510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>44825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4370295</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>927550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19072413" y="3866031"/>
+          <a:ext cx="4325470" cy="893931"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1088570</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>201704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1187823</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="차트 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -645,69 +2692,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="E22" sqref="E22"/>
+      <selection pane="topRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="31.25" customWidth="1"/>
-    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.375" customWidth="1"/>
-    <col min="8" max="8" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="50.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -721,260 +2777,391 @@
       <c r="E3" s="1">
         <v>64</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="F3" s="1">
+        <v>64</v>
+      </c>
+      <c r="G3" s="1">
+        <v>64</v>
+      </c>
+      <c r="H3" s="1">
+        <v>64</v>
+      </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.01</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.98357371794871795</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.948116987179487</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>0.98968349358974295</v>
+        <v>0.98357371794871795</v>
       </c>
       <c r="D9" s="1">
-        <v>0.97666266025641002</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+        <v>0.948116987179487</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.98567708333333304</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.98397435897435803</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.897335737179487</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.98</v>
+      </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>0.99198717948717896</v>
+        <v>0.98968349358974295</v>
       </c>
       <c r="D10" s="1">
-        <v>0.98096955128205099</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+        <v>0.97666266025641002</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.99078525641025605</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.98928285256410198</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.94861778846153799</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.98</v>
+      </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.9921875</v>
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.99198717948717896</v>
       </c>
       <c r="D11" s="1">
-        <v>0.98778044871794801</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+        <v>0.98096955128205099</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.99078525641025605</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.99078525641025605</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.97215544871794801</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.98</v>
+      </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.99298878205128205</v>
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.9921875</v>
       </c>
       <c r="D12" s="1">
-        <v>0.98407451923076905</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+        <v>0.98778044871794801</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.99048477564102499</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.99098557692307598</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.97866586538461497</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.98</v>
+      </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>0.99238782051282004</v>
+        <v>0.99298878205128205</v>
       </c>
       <c r="D13" s="1">
-        <v>0.98657852564102499</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+        <v>0.98407451923076905</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.99248798076922995</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.99268830128205099</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.98627804487179405</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.98</v>
+      </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
-        <v>0.99268830128205099</v>
+        <v>0.99238782051282004</v>
       </c>
       <c r="D14" s="1">
-        <v>0.98858173076922995</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+        <v>0.98657852564102499</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.99208733974358898</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.99228766025641002</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.98768028846153799</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.98</v>
+      </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1">
-        <v>0.99258814102564097</v>
+        <v>0.99268830128205099</v>
       </c>
       <c r="D15" s="1">
-        <v>0.98747996794871795</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+        <v>0.98858173076922995</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.993289262820512</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.99138621794871795</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.98457532051282004</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.98</v>
+      </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1">
-        <v>0.99248798076922995</v>
+        <v>0.99258814102564097</v>
       </c>
       <c r="D16" s="1">
-        <v>0.98978365384615297</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+        <v>0.98747996794871795</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.99268830128205099</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.99078525641025605</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.98687900641025605</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.98</v>
+      </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:9">
+      <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
-        <v>0.99258814102564097</v>
+        <v>0.99248798076922995</v>
       </c>
       <c r="D17" s="1">
-        <v>0.98958333333333304</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+        <v>0.98978365384615297</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.99188701923076905</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.99138621794871795</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.98387419871794801</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.98</v>
+      </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:9">
+      <c r="A18" s="5"/>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.99258814102564097</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.98958333333333304</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.99118589743589702</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.99068509615384603</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.98898237179487103</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="80.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A8:A17"/>
@@ -994,7 +3181,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/densenet-gluon/DenseNetParam.xlsx
+++ b/densenet-gluon/DenseNetParam.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
   <si>
     <t>Input_data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,485 +108,591 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>(32, 32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mx.init.Xavier()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(net.collect_params(), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'adagrad'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>, {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'learning_rate'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>})</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(net.collect_params(), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'rmsprop'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>, {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'gamma1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'learning_rate'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>})</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(net.collect_params(), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'sgd'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>, {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'learning_rate'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>})</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(net.collect_params(), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'adam'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>, {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'learning_rate'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>})</t>
+    </r>
+  </si>
+  <si>
+    <t>Optimization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(net.collect_params(), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'sgd'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>, {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'momentum'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'learning_rate'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>})</t>
+    </r>
+  </si>
+  <si>
+    <t>sgd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>momentum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adagrad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rmsprop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adadelta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(net.collect_params(), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'adadelta'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>, {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'rho'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.9999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>})</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mx.init.Xavier(magnitude=1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(net.collect_params(), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'sgd'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>, {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>'learning_rate'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+        <family val="2"/>
+      </rPr>
+      <t>})</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Learning7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(32, 32)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mx.init.Xavier()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">(net.collect_params(), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.3"/>
-        <color rgb="FF008080"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>'adagrad'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>, {</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.3"/>
-        <color rgb="FF008080"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>'learning_rate'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>})</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(net.collect_params(), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.3"/>
-        <color rgb="FF008080"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>'rmsprop'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>, {</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.3"/>
-        <color rgb="FF008080"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>'gamma1'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.3"/>
-        <color rgb="FF008080"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>'learning_rate'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>})</t>
-    </r>
+    <t>Learning8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">(net.collect_params(), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.3"/>
-        <color rgb="FF008080"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>'sgd'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>, {</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.3"/>
-        <color rgb="FF008080"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>'learning_rate'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>})</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(net.collect_params(), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.3"/>
-        <color rgb="FF008080"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>'adam'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>, {</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.3"/>
-        <color rgb="FF008080"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>'learning_rate'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>})</t>
-    </r>
-  </si>
-  <si>
-    <t>Optimization</t>
+    <t>Learning9</t>
+  </si>
+  <si>
+    <t>Learning10</t>
+  </si>
+  <si>
+    <t>Learning11</t>
+  </si>
+  <si>
+    <t>Learning12</t>
+  </si>
+  <si>
+    <t>mx.init.Xavier(magnitude=2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">(net.collect_params(), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.3"/>
-        <color rgb="FF008080"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>'sgd'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>, {</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.3"/>
-        <color rgb="FF008080"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>'momentum'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.3"/>
-        <color rgb="FF008080"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>'learning_rate'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>})</t>
-    </r>
-  </si>
-  <si>
-    <t>sgd</t>
+    <t>mx.init.Xavier(magnitude=3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adam</t>
+    <t>mx.init.Normal(sigma=0.5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>momentum</t>
+    <t>mx.init.Normal(sigma=1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adagrad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rmsprop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adadelta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(net.collect_params(), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.3"/>
-        <color rgb="FF008080"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>'adadelta'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>, {</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.3"/>
-        <color rgb="FF008080"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>'rho'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.9999</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inconsolata"/>
-        <family val="2"/>
-      </rPr>
-      <t>})</t>
-    </r>
+    <t>mx.init.Zero()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,7 +851,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.9299758095546984E-2"/>
+          <c:y val="0.15771521639734792"/>
+          <c:w val="0.93632748067211247"/>
+          <c:h val="0.8024687465867858"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -855,7 +971,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8DAD-4671-ADF7-621C7EEC37DC}"/>
+              <c16:uniqueId val="{00000000-56E2-421A-8955-905673BD35D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -965,7 +1081,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8DAD-4671-ADF7-621C7EEC37DC}"/>
+              <c16:uniqueId val="{00000001-56E2-421A-8955-905673BD35D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1075,7 +1191,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8DAD-4671-ADF7-621C7EEC37DC}"/>
+              <c16:uniqueId val="{00000002-56E2-421A-8955-905673BD35D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1185,7 +1301,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8DAD-4671-ADF7-621C7EEC37DC}"/>
+              <c16:uniqueId val="{00000003-56E2-421A-8955-905673BD35D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1295,7 +1411,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8DAD-4671-ADF7-621C7EEC37DC}"/>
+              <c16:uniqueId val="{00000004-56E2-421A-8955-905673BD35D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1370,34 +1486,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.98</c:v>
+                  <c:v>0.95132211538461497</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98</c:v>
+                  <c:v>0.98257211538461497</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98</c:v>
+                  <c:v>0.98257211538461497</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98</c:v>
+                  <c:v>0.98687900641025605</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98</c:v>
+                  <c:v>0.98737980769230704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98</c:v>
+                  <c:v>0.98407451923076905</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98</c:v>
+                  <c:v>0.989383012820512</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98</c:v>
+                  <c:v>0.98768028846153799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98</c:v>
+                  <c:v>0.98768028846153799</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.98</c:v>
+                  <c:v>0.99068509615384603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1405,7 +1521,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-8DAD-4671-ADF7-621C7EEC37DC}"/>
+              <c16:uniqueId val="{00000005-56E2-421A-8955-905673BD35D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2353,23 +2469,63 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>33132</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>49698</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4577918</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>976978</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24433697" y="3776872"/>
+          <a:ext cx="4544786" cy="927280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1088570</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>201704</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1187823</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="차트 5"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="11" name="차트 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2377,7 +2533,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2692,12 +2848,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="D18" sqref="D18"/>
+      <selection pane="topRight" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2709,11 +2865,12 @@
     <col min="5" max="5" width="69.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="70.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.75" customWidth="1"/>
+    <col min="9" max="9" width="50.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:18">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -2734,36 +2891,38 @@
       <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:18">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.99258814102564097</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:18">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -2786,9 +2945,14 @@
       <c r="H3" s="1">
         <v>64</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="Q3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.99118589743589702</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:18">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -2803,65 +2967,80 @@
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.99068509615384603</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:18">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.99068509615384603</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:18">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="1"/>
+      <c r="Q6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.98958333333333304</v>
+      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:18">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -2882,9 +3061,14 @@
         <v>0.01</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="Q7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.98898237179487103</v>
+      </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:18">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -2909,9 +3093,8 @@
       <c r="H8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:18">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>22</v>
@@ -2932,11 +3115,10 @@
         <v>0.897335737179487</v>
       </c>
       <c r="H9" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="I9" s="1"/>
+        <v>0.95132211538461497</v>
+      </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:18">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -2957,11 +3139,10 @@
         <v>0.94861778846153799</v>
       </c>
       <c r="H10" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="I10" s="1"/>
+        <v>0.98257211538461497</v>
+      </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:18">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -2982,11 +3163,10 @@
         <v>0.97215544871794801</v>
       </c>
       <c r="H11" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>0.98257211538461497</v>
+      </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:18">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
         <v>9</v>
@@ -3007,11 +3187,10 @@
         <v>0.97866586538461497</v>
       </c>
       <c r="H12" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="I12" s="1"/>
+        <v>0.98687900641025605</v>
+      </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:18">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
         <v>10</v>
@@ -3032,11 +3211,10 @@
         <v>0.98627804487179405</v>
       </c>
       <c r="H13" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="I13" s="1"/>
+        <v>0.98737980769230704</v>
+      </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:18">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
         <v>11</v>
@@ -3057,11 +3235,10 @@
         <v>0.98768028846153799</v>
       </c>
       <c r="H14" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="I14" s="1"/>
+        <v>0.98407451923076905</v>
+      </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:18">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>12</v>
@@ -3082,11 +3259,10 @@
         <v>0.98457532051282004</v>
       </c>
       <c r="H15" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="I15" s="1"/>
+        <v>0.989383012820512</v>
+      </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:18">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
         <v>13</v>
@@ -3107,9 +3283,8 @@
         <v>0.98687900641025605</v>
       </c>
       <c r="H16" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="I16" s="1"/>
+        <v>0.98768028846153799</v>
+      </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4"/>
@@ -3132,9 +3307,8 @@
         <v>0.98387419871794801</v>
       </c>
       <c r="H17" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="I17" s="1"/>
+        <v>0.98768028846153799</v>
+      </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="5"/>
@@ -3157,12 +3331,358 @@
         <v>0.98898237179487103</v>
       </c>
       <c r="H18" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="I18" s="1"/>
+        <v>0.99068509615384603</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="80.25" customHeight="1"/>
+    <row r="29" spans="1:9">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>64</v>
+      </c>
+      <c r="D31" s="1">
+        <v>64</v>
+      </c>
+      <c r="E31" s="1">
+        <v>64</v>
+      </c>
+      <c r="F31" s="1">
+        <v>64</v>
+      </c>
+      <c r="G31" s="1">
+        <v>64</v>
+      </c>
+      <c r="H31" s="1">
+        <v>64</v>
+      </c>
+      <c r="I31" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="1"/>
+      <c r="C34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.98357371794871795</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.98968349358974295</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.99198717948717896</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.9921875</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.99298878205128205</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.99238782051282004</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.99268830128205099</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.99258814102564097</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.99248798076922995</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.99258814102564097</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+    </row>
   </sheetData>
+  <sortState ref="Q2:R7">
+    <sortCondition descending="1" ref="R7"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A8:A17"/>
   </mergeCells>

--- a/densenet-gluon/DenseNetParam.xlsx
+++ b/densenet-gluon/DenseNetParam.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="52">
   <si>
     <t>Input_data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -653,10 +653,6 @@
   </si>
   <si>
     <t>Learning7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mx.init.Xavier()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2539,6 +2535,120 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>33616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3815387</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1624854" y="10634381"/>
+          <a:ext cx="3815386" cy="784413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3821207</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>172782</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5535706" y="10645589"/>
+          <a:ext cx="3765177" cy="766693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3687536</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>181428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9552214" y="10246178"/>
+          <a:ext cx="3646715" cy="752929"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2850,10 +2960,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="J37" sqref="J37"/>
+      <selection pane="topRight" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3286,7 +3396,7 @@
         <v>0.98768028846153799</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:8">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
         <v>14</v>
@@ -3310,7 +3420,7 @@
         <v>0.98768028846153799</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:8">
       <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
         <v>15</v>
@@ -3334,14 +3444,14 @@
         <v>0.99068509615384603</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="80.25" customHeight="1"/>
-    <row r="29" spans="1:9">
+    <row r="19" spans="1:8" ht="80.25" customHeight="1"/>
+    <row r="29" spans="1:8">
       <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>16</v>
+      <c r="C29" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>43</v>
@@ -3355,11 +3465,8 @@
       <c r="H29" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:8">
       <c r="B30" s="1" t="s">
         <v>0</v>
       </c>
@@ -3381,11 +3488,8 @@
       <c r="H30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:8">
       <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
@@ -3407,19 +3511,16 @@
       <c r="H31" s="1">
         <v>64</v>
       </c>
-      <c r="I31" s="1">
-        <v>64</v>
-      </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:8">
       <c r="B32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>48</v>
@@ -3433,11 +3534,8 @@
       <c r="H32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:8">
       <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
@@ -3459,11 +3557,8 @@
       <c r="H33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:8">
       <c r="B34" s="1"/>
       <c r="C34" s="3" t="s">
         <v>32</v>
@@ -3483,11 +3578,8 @@
       <c r="H34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:8">
       <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
@@ -3509,11 +3601,8 @@
       <c r="H35" s="1">
         <v>0.01</v>
       </c>
-      <c r="I35" s="1">
-        <v>0.01</v>
-      </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:8">
       <c r="B36" s="1" t="s">
         <v>4</v>
       </c>
@@ -3535,149 +3624,176 @@
       <c r="H36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:8">
       <c r="B37" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="1">
-        <v>0.98357371794871795</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+        <v>0.98537660256410198</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.97045272435897401</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0.98337339743589702</v>
+      </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:8">
       <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="1">
-        <v>0.98968349358974295</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
+        <v>0.99048477564102499</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0.987179487179487</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.98908253205128205</v>
+      </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:8">
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="1">
-        <v>0.99198717948717896</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+        <v>0.99208733974358898</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0.99248798076922995</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.99048477564102499</v>
+      </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:8">
       <c r="B40" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="2">
-        <v>0.9921875</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+        <v>0.99368990384615297</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0.993289262820512</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0.99068509615384603</v>
+      </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:8">
       <c r="B41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="1">
-        <v>0.99298878205128205</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+        <v>0.99358974358974295</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0.99389022435897401</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0.99118589743589702</v>
+      </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:8">
       <c r="B42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="1">
-        <v>0.99238782051282004</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+        <v>0.99409054487179405</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0.99379006410256399</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0.99138621794871795</v>
+      </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:8">
       <c r="B43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="1">
-        <v>0.99268830128205099</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+        <v>0.99429086538461497</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0.99379006410256399</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0.99138621794871795</v>
+      </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:8">
       <c r="B44" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="1">
-        <v>0.99258814102564097</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
+        <v>0.99429086538461497</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0.99399038461538403</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0.99138621794871795</v>
+      </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="2:8">
       <c r="B45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C45" s="1">
-        <v>0.99248798076922995</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+        <v>0.99419070512820495</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0.99419070512820495</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0.99128605769230704</v>
+      </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:8">
       <c r="B46" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C46" s="1">
-        <v>0.99258814102564097</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+        <v>0.99419070512820495</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0.99419070512820495</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0.99138621794871795</v>
+      </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
     </row>
   </sheetData>
   <sortState ref="Q2:R7">

--- a/densenet-gluon/DenseNetParam.xlsx
+++ b/densenet-gluon/DenseNetParam.xlsx
@@ -2649,6 +2649,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3779383</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>8167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14818178" y="10246178"/>
+          <a:ext cx="3738562" cy="783775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3931093</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19061206" y="10634383"/>
+          <a:ext cx="3897475" cy="806823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2960,10 +3036,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="F49" sqref="F49"/>
+      <selection pane="topRight" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3638,8 +3714,12 @@
       <c r="E37" s="5">
         <v>0.98337339743589702</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="F37" s="5">
+        <v>0.92618189102564097</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0.91376201923076905</v>
+      </c>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="2:8">
@@ -3655,8 +3735,12 @@
       <c r="E38" s="5">
         <v>0.98908253205128205</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
+      <c r="F38" s="5">
+        <v>0.94190705128205099</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.93659855769230704</v>
+      </c>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="2:8">
@@ -3672,8 +3756,12 @@
       <c r="E39" s="5">
         <v>0.99048477564102499</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="F39" s="5">
+        <v>0.94691506410256399</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.94270833333333304</v>
+      </c>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="2:8">
@@ -3689,8 +3777,12 @@
       <c r="E40" s="5">
         <v>0.99068509615384603</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
+      <c r="F40" s="5">
+        <v>0.95152243589743501</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.94431089743589702</v>
+      </c>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="2:8">
@@ -3706,8 +3798,12 @@
       <c r="E41" s="5">
         <v>0.99118589743589702</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
+      <c r="F41" s="5">
+        <v>0.95132211538461497</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.94601362179487103</v>
+      </c>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:8">
@@ -3723,8 +3819,12 @@
       <c r="E42" s="5">
         <v>0.99138621794871795</v>
       </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
+      <c r="F42" s="5">
+        <v>0.95262419871794801</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.94561298076922995</v>
+      </c>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="2:8">
@@ -3740,8 +3840,12 @@
       <c r="E43" s="5">
         <v>0.99138621794871795</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
+      <c r="F43" s="5">
+        <v>0.95342548076922995</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.94701522435897401</v>
+      </c>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="2:8">
@@ -3757,8 +3861,12 @@
       <c r="E44" s="5">
         <v>0.99138621794871795</v>
       </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
+      <c r="F44" s="5">
+        <v>0.95382612179487103</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.94611378205128205</v>
+      </c>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="2:8">
@@ -3774,8 +3882,12 @@
       <c r="E45" s="5">
         <v>0.99128605769230704</v>
       </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
+      <c r="F45" s="5">
+        <v>0.95362580128205099</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0.94711538461538403</v>
+      </c>
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="2:8">
@@ -3791,8 +3903,12 @@
       <c r="E46" s="5">
         <v>0.99138621794871795</v>
       </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
+      <c r="F46" s="5">
+        <v>0.95432692307692302</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.94731570512820495</v>
+      </c>
       <c r="H46" s="5"/>
     </row>
   </sheetData>

--- a/densenet-gluon/DenseNetParam.xlsx
+++ b/densenet-gluon/DenseNetParam.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="52">
   <si>
     <t>Input_data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -766,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -782,6 +782,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1717,6 +1720,803 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mx.init.Xavier(magnitude=1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$37:$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Epoch0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Epoch1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Epoch2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Epoch3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Epoch4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Epoch5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Epoch6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Epoch7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Epoch8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Epoch9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$37:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.98537660256410198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99048477564102499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99208733974358898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99368990384615297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99358974358974295</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99409054487179405</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99429086538461497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99429086538461497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99419070512820495</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99419070512820495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-759C-4531-A66E-6DF4DA2E3700}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mx.init.Xavier(magnitude=2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$37:$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Epoch0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Epoch1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Epoch2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Epoch3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Epoch4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Epoch5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Epoch6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Epoch7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Epoch8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Epoch9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$37:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.97045272435897401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.987179487179487</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99248798076922995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.993289262820512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99389022435897401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99379006410256399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99379006410256399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99399038461538403</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99419070512820495</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99419070512820495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-759C-4531-A66E-6DF4DA2E3700}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mx.init.Xavier(magnitude=3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$37:$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Epoch0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Epoch1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Epoch2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Epoch3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Epoch4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Epoch5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Epoch6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Epoch7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Epoch8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Epoch9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$37:$E$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.98337339743589702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98908253205128205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99048477564102499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99068509615384603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99118589743589702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99138621794871795</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99138621794871795</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99138621794871795</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99128605769230704</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99138621794871795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-759C-4531-A66E-6DF4DA2E3700}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mx.init.Normal(sigma=0.5)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$37:$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Epoch0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Epoch1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Epoch2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Epoch3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Epoch4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Epoch5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Epoch6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Epoch7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Epoch8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Epoch9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$37:$F$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.92618189102564097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94190705128205099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94691506410256399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95152243589743501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95132211538461497</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95262419871794801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95342548076922995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95382612179487103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95362580128205099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95432692307692302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-759C-4531-A66E-6DF4DA2E3700}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mx.init.Normal(sigma=1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$37:$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Epoch0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Epoch1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Epoch2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Epoch3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Epoch4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Epoch5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Epoch6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Epoch7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Epoch8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Epoch9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$37:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.91376201923076905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93659855769230704</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94270833333333304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94431089743589702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94601362179487103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94561298076922995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94701522435897401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94611378205128205</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94711538461538403</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94731570512820495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-759C-4531-A66E-6DF4DA2E3700}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="530429104"/>
+        <c:axId val="530425776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="530429104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530425776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="530425776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530429104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1757,7 +2557,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2725,6 +4081,74 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3532910</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>153284</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24459458" y="10414413"/>
+          <a:ext cx="3492088" cy="735916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>335111</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="차트 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3036,10 +4460,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B21" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="G48" sqref="G48"/>
+      <selection pane="topRight" activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3054,6 +4478,8 @@
     <col min="8" max="8" width="61.75" customWidth="1"/>
     <col min="9" max="9" width="50.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -3255,7 +4681,7 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3281,7 +4707,7 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="4"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
@@ -3305,7 +4731,7 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="4"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -3329,7 +4755,7 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="4"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
@@ -3353,7 +4779,7 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="4"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -3377,7 +4803,7 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="4"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -3401,7 +4827,7 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="4"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
@@ -3425,7 +4851,7 @@
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="4"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
@@ -3449,7 +4875,7 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="4"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
@@ -3472,8 +4898,8 @@
         <v>0.98768028846153799</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="4"/>
+    <row r="17" spans="1:18">
+      <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
@@ -3496,7 +4922,7 @@
         <v>0.98768028846153799</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:18">
       <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
         <v>15</v>
@@ -3520,8 +4946,8 @@
         <v>0.99068509615384603</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="80.25" customHeight="1"/>
-    <row r="29" spans="1:8">
+    <row r="19" spans="1:18" ht="80.25" customHeight="1"/>
+    <row r="29" spans="1:18">
       <c r="B29" s="1"/>
       <c r="C29" s="5" t="s">
         <v>41</v>
@@ -3541,8 +4967,14 @@
       <c r="H29" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="Q29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R29" s="4">
+        <v>0.99419070512820495</v>
+      </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:18">
       <c r="B30" s="1" t="s">
         <v>0</v>
       </c>
@@ -3564,8 +4996,14 @@
       <c r="H30" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="Q30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R30" s="5">
+        <v>0.99419070512820495</v>
+      </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:18">
       <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
@@ -3587,8 +5025,14 @@
       <c r="H31" s="1">
         <v>64</v>
       </c>
+      <c r="Q31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R31" s="5">
+        <v>0.99138621794871795</v>
+      </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:18">
       <c r="B32" s="1" t="s">
         <v>2</v>
       </c>
@@ -3610,8 +5054,14 @@
       <c r="H32" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="Q32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R32" s="5">
+        <v>0.95432692307692302</v>
+      </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:18">
       <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
@@ -3633,8 +5083,14 @@
       <c r="H33" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="Q33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="R33" s="5">
+        <v>0.94731570512820495</v>
+      </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:18">
       <c r="B34" s="1"/>
       <c r="C34" s="3" t="s">
         <v>32</v>
@@ -3654,8 +5110,14 @@
       <c r="H34" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="Q34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R34" s="5">
+        <v>0.113681891025641</v>
+      </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:18">
       <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
@@ -3678,7 +5140,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:18">
       <c r="B36" s="1" t="s">
         <v>4</v>
       </c>
@@ -3701,7 +5163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:18">
       <c r="B37" s="1" t="s">
         <v>22</v>
       </c>
@@ -3720,9 +5182,11 @@
       <c r="G37" s="5">
         <v>0.91376201923076905</v>
       </c>
-      <c r="H37" s="5"/>
+      <c r="H37" s="5">
+        <v>0.11348157051282</v>
+      </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:18">
       <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
@@ -3741,9 +5205,11 @@
       <c r="G38" s="5">
         <v>0.93659855769230704</v>
       </c>
-      <c r="H38" s="5"/>
+      <c r="H38" s="5">
+        <v>0.11348157051282</v>
+      </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:18">
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
@@ -3762,9 +5228,11 @@
       <c r="G39" s="5">
         <v>0.94270833333333304</v>
       </c>
-      <c r="H39" s="5"/>
+      <c r="H39" s="5">
+        <v>0.11358173076923</v>
+      </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:18">
       <c r="B40" s="1" t="s">
         <v>9</v>
       </c>
@@ -3783,9 +5251,11 @@
       <c r="G40" s="5">
         <v>0.94431089743589702</v>
       </c>
-      <c r="H40" s="5"/>
+      <c r="H40" s="5">
+        <v>0.11358173076923</v>
+      </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:18">
       <c r="B41" s="1" t="s">
         <v>10</v>
       </c>
@@ -3804,9 +5274,11 @@
       <c r="G41" s="5">
         <v>0.94601362179487103</v>
       </c>
-      <c r="H41" s="5"/>
+      <c r="H41" s="5">
+        <v>0.11348157051282</v>
+      </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:18">
       <c r="B42" s="1" t="s">
         <v>11</v>
       </c>
@@ -3825,9 +5297,11 @@
       <c r="G42" s="5">
         <v>0.94561298076922995</v>
       </c>
-      <c r="H42" s="5"/>
+      <c r="H42" s="5">
+        <v>0.113681891025641</v>
+      </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:18">
       <c r="B43" s="1" t="s">
         <v>12</v>
       </c>
@@ -3846,9 +5320,11 @@
       <c r="G43" s="5">
         <v>0.94701522435897401</v>
       </c>
-      <c r="H43" s="5"/>
+      <c r="H43" s="5">
+        <v>0.11328125</v>
+      </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:18">
       <c r="B44" s="1" t="s">
         <v>13</v>
       </c>
@@ -3867,9 +5343,11 @@
       <c r="G44" s="5">
         <v>0.94611378205128205</v>
       </c>
-      <c r="H44" s="5"/>
+      <c r="H44" s="5">
+        <v>0.113681891025641</v>
+      </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:18">
       <c r="B45" s="1" t="s">
         <v>14</v>
       </c>
@@ -3888,9 +5366,11 @@
       <c r="G45" s="5">
         <v>0.94711538461538403</v>
       </c>
-      <c r="H45" s="5"/>
+      <c r="H45" s="5">
+        <v>0.11358173076923</v>
+      </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:18">
       <c r="B46" s="1" t="s">
         <v>15</v>
       </c>
@@ -3909,11 +5389,13 @@
       <c r="G46" s="5">
         <v>0.94731570512820495</v>
       </c>
-      <c r="H46" s="5"/>
+      <c r="H46" s="5">
+        <v>0.113681891025641</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="Q2:R7">
-    <sortCondition descending="1" ref="R7"/>
+  <sortState ref="Q30:R34">
+    <sortCondition descending="1" ref="R30"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A8:A17"/>
@@ -3937,6 +5419,7 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/densenet-gluon/DenseNetParam.xlsx
+++ b/densenet-gluon/DenseNetParam.xlsx
@@ -4460,10 +4460,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="S38" sqref="S38"/>
+      <selection pane="topRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/densenet-gluon/DenseNetParam.xlsx
+++ b/densenet-gluon/DenseNetParam.xlsx
@@ -4460,10 +4460,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="I24" sqref="I24"/>
+      <selection pane="topRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
